--- a/Booper Beats menu.xlsx
+++ b/Booper Beats menu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\secre\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\GitHub\Booper-Beats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CCB84BE-BD4A-4746-9D09-5499A6C0A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4E24C-7043-4845-B065-596A1D5D396E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B74DB0A7-96F1-4DCE-9679-A1267312297F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B74DB0A7-96F1-4DCE-9679-A1267312297F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="101">
   <si>
     <t>Burger</t>
   </si>
@@ -168,12 +168,6 @@
     <t xml:space="preserve"> - buns</t>
   </si>
   <si>
-    <t xml:space="preserve">seaseme </t>
-  </si>
-  <si>
-    <t xml:space="preserve">brioche </t>
-  </si>
-  <si>
     <t>Item Base:</t>
   </si>
   <si>
@@ -225,46 +219,127 @@
     <t>item part type</t>
   </si>
   <si>
-    <t>soft crust</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pizza </t>
   </si>
   <si>
-    <t xml:space="preserve">Item base </t>
-  </si>
-  <si>
-    <t xml:space="preserve">crust </t>
-  </si>
-  <si>
-    <t>hand tossed</t>
-  </si>
-  <si>
-    <t>Main Ingredient</t>
-  </si>
-  <si>
-    <t>burger</t>
-  </si>
-  <si>
-    <t>item base</t>
-  </si>
-  <si>
-    <t>buns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">burger </t>
-  </si>
-  <si>
     <t xml:space="preserve"> *new item</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>provolone</t>
-  </si>
-  <si>
     <t>extra cost</t>
+  </si>
+  <si>
+    <t>Coliflower Crust</t>
+  </si>
+  <si>
+    <t>Marinara</t>
+  </si>
+  <si>
+    <t>Garlic Butter</t>
+  </si>
+  <si>
+    <t>Motzerella</t>
+  </si>
+  <si>
+    <t>Cheddar</t>
+  </si>
+  <si>
+    <t>Pepperoni</t>
+  </si>
+  <si>
+    <t>Sausage</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>Beef</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Provolone</t>
+  </si>
+  <si>
+    <t>Swiss</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Pickles</t>
+  </si>
+  <si>
+    <t>Katchup</t>
+  </si>
+  <si>
+    <t>Mustard</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Base </t>
+  </si>
+  <si>
+    <t>Crust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crust </t>
+  </si>
+  <si>
+    <t>Sauce</t>
+  </si>
+  <si>
+    <t>Primary Ingredient</t>
+  </si>
+  <si>
+    <t>Secondary Ingredient</t>
+  </si>
+  <si>
+    <t>Pizza Cheese</t>
+  </si>
+  <si>
+    <t>Pizza Toppings</t>
+  </si>
+  <si>
+    <t>Onions</t>
+  </si>
+  <si>
+    <t>Peppers</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Ham</t>
+  </si>
+  <si>
+    <t>Mushrooms</t>
+  </si>
+  <si>
+    <t>Buns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brioche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seaseme </t>
+  </si>
+  <si>
+    <t>Meats</t>
+  </si>
+  <si>
+    <t>Burger Cheese</t>
+  </si>
+  <si>
+    <t>Burger Toppings</t>
   </si>
 </sst>
 </file>
@@ -402,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,26 +792,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA41ABF3-0487-4688-9D4D-F5921DCCC661}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -744,10 +820,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -762,7 +838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -782,12 +858,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
       <c r="I3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="7"/>
@@ -797,15 +882,24 @@
       <c r="N3" s="8"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>47</v>
+      <c r="J4" t="s">
+        <v>45</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>7</v>
@@ -813,22 +907,25 @@
       <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>49</v>
+      <c r="N4" t="s">
+        <v>47</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
       <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>47</v>
+      <c r="J5" t="s">
+        <v>45</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>8</v>
@@ -836,39 +933,48 @@
       <c r="M5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>48</v>
+      <c r="J6" t="s">
+        <v>46</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -877,153 +983,638 @@
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="L12" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="J14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L27" t="s">
+        <v>94</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="I18" s="4"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H19" t="s">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" t="s">
+        <v>99</v>
+      </c>
+      <c r="L34" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" t="s">
+        <v>99</v>
+      </c>
+      <c r="L35" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>100</v>
+      </c>
+      <c r="L37" t="s">
+        <v>76</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>100</v>
+      </c>
+      <c r="L38" t="s">
+        <v>77</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>100</v>
+      </c>
+      <c r="L39" t="s">
+        <v>78</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>100</v>
+      </c>
+      <c r="L41" t="s">
+        <v>80</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L42" t="s">
+        <v>81</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I43" s="4"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I44" s="4"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I45" s="4"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I46" s="5"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,15 +1629,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1071,7 +1662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1085,7 +1676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -1096,7 +1687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1107,7 +1698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1115,7 +1706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1123,37 +1714,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1165,6 +1756,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000D62F83070C71B4D8B4793702B057289" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="25c8a2fefa7b7e88399fb39c7cba72ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b42ea412-5664-4c8e-8075-3412bbcb16b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfa689c8ed6e74f2f6b45c0981014147" ns3:_="">
     <xsd:import namespace="b42ea412-5664-4c8e-8075-3412bbcb16b3"/>
@@ -1296,22 +1902,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F682A217-8996-4537-B348-413C8B1591F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b42ea412-5664-4c8e-8075-3412bbcb16b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0C2F8DE-6F49-4596-8BE8-9AA2E939291F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31334C2A-098F-482D-A5E8-DF284BC90909}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1327,28 +1942,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0C2F8DE-6F49-4596-8BE8-9AA2E939291F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F682A217-8996-4537-B348-413C8B1591F4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b42ea412-5664-4c8e-8075-3412bbcb16b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>